--- a/pred_ohlcv/54_21/2020-01-23 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 BTT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>65725360.59064081</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>65726591.0901408</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>65727821.66984081</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>65727821.66984081</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>60100424.73944081</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>60105081.31694081</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>56533370.13874081</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>56533370.13874081</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -886,7 +886,7 @@
         <v>46135164.02924081</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>46834024.09524081</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>46993891.23504081</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>46337217.1597408</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>44227424.3485408</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>27569205.3552408</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>27874804.77374079</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>27871764.25744079</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>33942948.63044079</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>33942948.63044079</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>33942948.63044079</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>23340145.71058765</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>24057684.17168765</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>24057684.17168765</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>24067849.24738765</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>24067849.24738765</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>48970412.48208765</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>48468725.94098765</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>48657914.67808764</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>48657914.67808764</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>48656518.23388764</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>48656518.23388764</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>51646915.37239108</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>53891905.72119108</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>50118442.46749108</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>53455707.55439108</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>53478764.96744934</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>52981769.49184934</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>52985781.52524934</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>52985781.52524934</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>54185781.52524934</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>59697905.12334934</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>58809090.71518813</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>58809090.71518813</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>57528834.53738813</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>56528834.53738813</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>55530004.38348813</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>53529678.53458814</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>53467975.15848813</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>53889994.90228813</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>53882804.27508813</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>53882804.27508813</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>53882804.27508813</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>54001046.78548813</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>50568605.43188813</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>50571466.12328812</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>49526013.12328812</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>49541083.61878812</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>48607649.49698813</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>44291316.31218813</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>63222930.08098812</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>60252751.20378812</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>65347576.55358813</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>65344506.06148813</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>65274035.84638813</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>65274035.84638813</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>65274035.84638813</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>63510168.04268813</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>63511340.84988813</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>63508980.83128813</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>63508980.83128813</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>63532582.21258813</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>63413181.67968813</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>63436378.15388814</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>62936378.15388814</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 BTT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>65725360.59064081</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>65726591.0901408</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>65727821.66984081</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>65727821.66984081</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>60100424.73944081</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>60105081.31694081</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>56533370.13874081</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>56533370.13874081</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -886,7 +886,7 @@
         <v>46135164.02924081</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>46834024.09524081</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>46993891.23504081</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>46337217.1597408</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>44227424.3485408</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>31334206.5892408</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>27569205.3552408</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>27874804.77374079</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>27871764.25744079</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>33942948.63044079</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>33942948.63044079</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>33942948.63044079</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>23340145.71058765</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>24057684.17168765</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>24057684.17168765</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>24067849.24738765</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>24067849.24738765</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>52544107.52709108</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>53478764.96744934</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>52981769.49184934</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>52985781.52524934</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>52985781.52524934</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>54185781.52524934</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>59697905.12334934</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>58694174.60394934</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>58809090.71518813</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>58809090.71518813</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>57528834.53738813</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>56528834.53738813</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>56530004.38348813</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>55530004.38348813</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>53529678.53458814</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>53467975.15848813</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>53889994.90228813</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>53882804.27508813</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>54001046.78548813</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>50568605.43188813</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>50571466.12328812</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>49526013.12328812</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>49541083.61878812</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>48607649.49698813</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>63222930.08098812</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>65344506.06148813</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>65274035.84638813</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>63508980.83128813</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>63413181.67968813</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
